--- a/results/s_course.txt_50_yaw.xlsx
+++ b/results/s_course.txt_50_yaw.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artyom\Documents\Projects\autonomous_vehicles1\path-planning-simulation\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C69F6C77-3B1E-47FD-BE2A-3F39EB86F529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04928E39-B2D3-42A7-B418-087548C8C4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="s_course.txt_50_yaw" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -579,6 +579,4116 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Steering angle at 50 km/h,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> straight track course</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>s_course.txt_50_yaw!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pure Pursuit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>s_course.txt_50_yaw!$A$2:$A$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="122"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>12.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>s_course.txt_50_yaw!$B$2:$B$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="122"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00E+00">
+                  <c:v>-2.6896385522547502E-16</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00E+00">
+                  <c:v>-2.6878297838941198E-16</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00E+00">
+                  <c:v>-2.68602344667376E-16</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00E+00">
+                  <c:v>-2.6842195356954701E-16</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00E+00">
+                  <c:v>-2.6905438496469601E-16</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00E+00">
+                  <c:v>-2.6887338638752498E-16</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00E+00">
+                  <c:v>-2.6869263116978498E-16</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00E+00">
+                  <c:v>-2.6851211882099799E-16</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00E+00">
+                  <c:v>-2.6833184885200102E-16</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00E+00">
+                  <c:v>-2.6896385522547502E-16</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00E+00">
+                  <c:v>-2.6878297838941198E-16</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.00E+00">
+                  <c:v>-2.68602344667376E-16</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.00E+00">
+                  <c:v>-2.6842195356954701E-16</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00E+00">
+                  <c:v>-2.6905438496469601E-16</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.00E+00">
+                  <c:v>-2.6887338638752498E-16</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.5229099808914006E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.5186015084432302E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.3271873373068102E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.8643684692836894E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.15117341819311</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.20846656128841601</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.26868957519220099</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.35868696401226902</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.41607055397843301</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.48510768860682701</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.52269855805976395</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.54139228932236005</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.54818304337974999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.54698740010709002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.53993129098673998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.52806351941909502</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.512666647141654</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.49399849472157997</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.47259641235808397</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44895845739948997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.42354752655052602</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.395907824005579</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.36835145886424298</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.33932587517360802</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.31027205262138102</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.281538358430096</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.25343422542655802</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.226228657420845</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.19933896198318099</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.17476059788690099</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.15090517305902301</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.12948734138013601</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.109047281890188</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9.0448436066666194E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7.3663472014994902E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.9088709207210099E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.5621002221631499E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.37747026381328E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.3450046660002801E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.45402596409566E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.1619069522014696E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.7219061223743601E-4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-4.7211472712063302E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-9.1274719299016295E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-1.63803216312511E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-2.47476879303309E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-5.31468940177229E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-9.2625478644539794E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.13994010485080299</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.192682837766636</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-0.249032740064349</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-0.307565151190897</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.36711690456207702</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-0.45381345802357098</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.50417065894380098</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-0.53724443446714798</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-0.55217563658889401</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-0.55660845885816401</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-0.55359938120227803</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.54511629032339304</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-0.53198780710233895</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.51551977871518195</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-0.49590394505976498</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.47366579928232799</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-0.44929252953799897</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-0.42323769979820902</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-0.39592608204260399</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-0.36682782651164098</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-0.33739579722691698</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-0.30894037243454398</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-0.279761500113057</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-0.25039346255342798</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-0.223075418290754</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-0.19612466356276001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-0.171536054209216</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-0.14771223793108601</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-0.126360947754455</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-0.10601943711089599</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-8.7543803948141805E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-7.09010577471577E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-5.6033437876088298E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-4.3257324666547102E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-3.1574434783352499E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-2.14159509505919E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-1.267237948848E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-5.2309436628232E-3</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.0217888701313899E-3</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>6.0431993951401298E-3</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.0308454498428E-2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.2845924539938901E-2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.27318156988348E-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.25939507447773E-2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.2424050895291699E-2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.2209485013121701E-2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.19299766394867E-2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.15507882409415E-2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.1007031894071401E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DC8A-411C-9454-63D20A00CAFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>s_course.txt_50_yaw!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stanley</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>s_course.txt_50_yaw!$A$2:$A$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="122"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>12.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>s_course.txt_50_yaw!$C$2:$C$123</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="122"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.00421037530082E-16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.12667505521556E-16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.2491397351303E-16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.3716044150450301E-16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.4940690949597701E-16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.6165337748744999E-16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.7389984547892399E-16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.86146313470397E-16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.98392781461871E-16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.1063924945334399E-16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.2288571744481799E-16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.35132185436291E-16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.47378653427765E-16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.5962512141923801E-16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.7187158941071201E-16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.8411805740218601E-16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.9636452539365902E-16</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3.0861099338513302E-16</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.2085746137660598E-16</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3.3310392936807998E-16</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3.4535039735955299E-16</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-3.5759686535102699E-16</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-3.698433333425E-16</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-3.82089801333974E-16</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-3.9433626932544701E-16</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-4.0658273731692101E-16</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-4.1882920530839402E-16</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-4.3107567329986802E-16</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>4.1336745441970801E-2</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>0.21117451537990301</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>0.35411987404687201</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="General">
+                  <c:v>0.46896499718218299</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>0.42040179736489802</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="General">
+                  <c:v>0.53849421062509095</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="General">
+                  <c:v>0.62309561651381296</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="General">
+                  <c:v>0.68059910387911104</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="General">
+                  <c:v>0.78539816339744795</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="General">
+                  <c:v>0.78539816339744795</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="General">
+                  <c:v>0.78539816339744795</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="General">
+                  <c:v>0.62224484252253398</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="General">
+                  <c:v>0.50799357621793395</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="General">
+                  <c:v>0.42098480229297103</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="General">
+                  <c:v>0.35531472041457002</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="General">
+                  <c:v>0.30258948118441598</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="General">
+                  <c:v>0.25894776472311298</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="General">
+                  <c:v>0.22419794320630601</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="General">
+                  <c:v>0.19393715950054199</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="General">
+                  <c:v>0.17073364887964201</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="General">
+                  <c:v>0.14937707242804599</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="General">
+                  <c:v>0.13138178814343901</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="General">
+                  <c:v>0.11599929160137901</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="General">
+                  <c:v>0.10270401549186001</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="General">
+                  <c:v>9.1115774425627793E-2</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="General">
+                  <c:v>8.0951524900251801E-2</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="General">
+                  <c:v>7.1994588292951897E-2</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="General">
+                  <c:v>6.4074626480271402E-2</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="General">
+                  <c:v>5.6527316948744598E-2</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="General">
+                  <c:v>5.0544628588007401E-2</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="General">
+                  <c:v>4.51701603129816E-2</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="General">
+                  <c:v>4.0347518307357701E-2</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="General">
+                  <c:v>3.6024636114203097E-2</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="General">
+                  <c:v>3.1854932312545499E-2</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="General">
+                  <c:v>2.85331201377916E-2</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="General">
+                  <c:v>2.55313163499057E-2</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="General">
+                  <c:v>2.28261347072331E-2</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="General">
+                  <c:v>2.0203991591565201E-2</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="General">
+                  <c:v>1.8110975789076701E-2</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="General">
+                  <c:v>1.62148972732469E-2</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="General">
+                  <c:v>1.4503009651015799E-2</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="General">
+                  <c:v>1.28409445278088E-2</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="General">
+                  <c:v>1.1513366525965201E-2</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="General">
+                  <c:v>1.0309733567347001E-2</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="General">
+                  <c:v>8.7064497721399403E-3</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="General">
+                  <c:v>-0.217972435963358</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="General">
+                  <c:v>-0.357131222713024</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="General">
+                  <c:v>-0.34458797896677701</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="General">
+                  <c:v>-0.47338386679313799</c:v>
+                </c:pt>
+                <c:pt idx="78" formatCode="General">
+                  <c:v>-0.57063850435835906</c:v>
+                </c:pt>
+                <c:pt idx="79" formatCode="General">
+                  <c:v>-0.63976584549862403</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="General">
+                  <c:v>-0.68721810293086705</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="General">
+                  <c:v>-0.78539816339744795</c:v>
+                </c:pt>
+                <c:pt idx="82" formatCode="General">
+                  <c:v>-0.78539816339744795</c:v>
+                </c:pt>
+                <c:pt idx="83" formatCode="General">
+                  <c:v>-0.77249102949080295</c:v>
+                </c:pt>
+                <c:pt idx="84" formatCode="General">
+                  <c:v>-0.61474845228726105</c:v>
+                </c:pt>
+                <c:pt idx="85" formatCode="General">
+                  <c:v>-0.50380060184128295</c:v>
+                </c:pt>
+                <c:pt idx="86" formatCode="General">
+                  <c:v>-0.41837205313607501</c:v>
+                </c:pt>
+                <c:pt idx="87" formatCode="General">
+                  <c:v>-0.35362407847065003</c:v>
+                </c:pt>
+                <c:pt idx="88" formatCode="General">
+                  <c:v>-0.30150193182798601</c:v>
+                </c:pt>
+                <c:pt idx="89" formatCode="General">
+                  <c:v>-0.25827650903579302</c:v>
+                </c:pt>
+                <c:pt idx="90" formatCode="General">
+                  <c:v>-0.22382299300164701</c:v>
+                </c:pt>
+                <c:pt idx="91" formatCode="General">
+                  <c:v>-0.195466661753708</c:v>
+                </c:pt>
+                <c:pt idx="92" formatCode="General">
+                  <c:v>-0.17008079426314099</c:v>
+                </c:pt>
+                <c:pt idx="93" formatCode="General">
+                  <c:v>-0.149029749531019</c:v>
+                </c:pt>
+                <c:pt idx="94" formatCode="General">
+                  <c:v>-0.13125016414989499</c:v>
+                </c:pt>
+                <c:pt idx="95" formatCode="General">
+                  <c:v>-0.116018583076734</c:v>
+                </c:pt>
+                <c:pt idx="96" formatCode="General">
+                  <c:v>-0.10282696433395901</c:v>
+                </c:pt>
+                <c:pt idx="97" formatCode="General">
+                  <c:v>-9.1307700590167296E-2</c:v>
+                </c:pt>
+                <c:pt idx="98" formatCode="General">
+                  <c:v>-8.1186941404964297E-2</c:v>
+                </c:pt>
+                <c:pt idx="99" formatCode="General">
+                  <c:v>-7.2254813606329599E-2</c:v>
+                </c:pt>
+                <c:pt idx="100" formatCode="General">
+                  <c:v>-6.4346060755641601E-2</c:v>
+                </c:pt>
+                <c:pt idx="101" formatCode="General">
+                  <c:v>-5.7327260324094097E-2</c:v>
+                </c:pt>
+                <c:pt idx="102" formatCode="General">
+                  <c:v>-5.1088266371097701E-2</c:v>
+                </c:pt>
+                <c:pt idx="103" formatCode="General">
+                  <c:v>-4.5114879783639497E-2</c:v>
+                </c:pt>
+                <c:pt idx="104" formatCode="General">
+                  <c:v>-4.0371225316647899E-2</c:v>
+                </c:pt>
+                <c:pt idx="105" formatCode="General">
+                  <c:v>-3.61002820933757E-2</c:v>
+                </c:pt>
+                <c:pt idx="106" formatCode="General">
+                  <c:v>-3.2261575390018997E-2</c:v>
+                </c:pt>
+                <c:pt idx="107" formatCode="General">
+                  <c:v>-2.88165022465919E-2</c:v>
+                </c:pt>
+                <c:pt idx="108" formatCode="General">
+                  <c:v>-2.5489628154131201E-2</c:v>
+                </c:pt>
+                <c:pt idx="109" formatCode="General">
+                  <c:v>-2.2838372628067798E-2</c:v>
+                </c:pt>
+                <c:pt idx="110" formatCode="General">
+                  <c:v>-2.0441162511993599E-2</c:v>
+                </c:pt>
+                <c:pt idx="111" formatCode="General">
+                  <c:v>-1.8279842586940501E-2</c:v>
+                </c:pt>
+                <c:pt idx="112" formatCode="General">
+                  <c:v>-1.63357399601134E-2</c:v>
+                </c:pt>
+                <c:pt idx="113" formatCode="General">
+                  <c:v>-1.44546771839723E-2</c:v>
+                </c:pt>
+                <c:pt idx="114" formatCode="General">
+                  <c:v>-1.2954461836384301E-2</c:v>
+                </c:pt>
+                <c:pt idx="115" formatCode="General">
+                  <c:v>-1.15967872298358E-2</c:v>
+                </c:pt>
+                <c:pt idx="116" formatCode="General">
+                  <c:v>-1.03719475227824E-2</c:v>
+                </c:pt>
+                <c:pt idx="117" formatCode="General">
+                  <c:v>-8.8382234144868295E-3</c:v>
+                </c:pt>
+                <c:pt idx="118" formatCode="General">
+                  <c:v>-5.8821605548925598E-3</c:v>
+                </c:pt>
+                <c:pt idx="119" formatCode="General">
+                  <c:v>-4.0782301333955103E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DC8A-411C-9454-63D20A00CAFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>s_course.txt_50_yaw!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stanley with lookahead</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>s_course.txt_50_yaw!$A$2:$A$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="122"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>12.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>s_course.txt_50_yaw!$D$2:$D$123</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="122"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.00421037530082E-16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.12667505521556E-16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.2491397351303E-16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.3716044150450301E-16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.4940690949597701E-16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.6165337748744999E-16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.7389984547892399E-16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.86146313470397E-16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.98392781461871E-16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.1063924945334399E-16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.2288571744481799E-16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.35132185436291E-16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.47378653427765E-16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.5962512141923801E-16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.7187158941071201E-16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.8411805740218601E-16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.9636452539365902E-16</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3.0861099338513302E-16</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.2085746137660598E-16</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3.3310392936807998E-16</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3.4535039735955299E-16</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-3.5759686535102699E-16</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-3.698433333425E-16</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-3.82089801333974E-16</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-3.9433626932544701E-16</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-4.0658273731692101E-16</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="General">
+                  <c:v>0.12892852673879701</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>0.27663186980376298</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>0.27022539932846201</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>0.399500465427304</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>0.49334852957767</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="General">
+                  <c:v>0.559447991405297</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>0.60633680191817796</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="General">
+                  <c:v>0.64159053763395402</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="General">
+                  <c:v>0.67061344685428603</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="General">
+                  <c:v>0.78539816339744795</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="General">
+                  <c:v>0.68921341056461405</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="General">
+                  <c:v>0.54699187716613995</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="General">
+                  <c:v>0.46167624757089198</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="General">
+                  <c:v>0.39666532125135501</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="General">
+                  <c:v>0.34266350237009602</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="General">
+                  <c:v>0.30222123563047598</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="General">
+                  <c:v>0.26419026996636202</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="General">
+                  <c:v>0.23444855158504799</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="General">
+                  <c:v>0.207750503464674</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="General">
+                  <c:v>0.18597927405253301</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="General">
+                  <c:v>0.16572725817853501</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="General">
+                  <c:v>0.149006874409808</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="General">
+                  <c:v>0.13476825966554201</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="General">
+                  <c:v>0.12235690274923799</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="General">
+                  <c:v>0.11135505800550299</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="General">
+                  <c:v>0.10031257807119399</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="General">
+                  <c:v>9.09198621905834E-2</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="General">
+                  <c:v>8.3743788690106694E-2</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="General">
+                  <c:v>7.6027166048363598E-2</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="General">
+                  <c:v>6.9263810044996793E-2</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="General">
+                  <c:v>6.3254294097838601E-2</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="General">
+                  <c:v>5.7860635776169698E-2</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="General">
+                  <c:v>5.2984717689499999E-2</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="General">
+                  <c:v>4.8554523954742801E-2</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="General">
+                  <c:v>4.4515325094413999E-2</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="General">
+                  <c:v>4.0824014145401599E-2</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="General">
+                  <c:v>3.6989831521432801E-2</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="General">
+                  <c:v>3.4124491287891003E-2</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="General">
+                  <c:v>3.1429429472031298E-2</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="General">
+                  <c:v>2.89130451214318E-2</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="General">
+                  <c:v>2.6575578274314199E-2</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="General">
+                  <c:v>2.44122629802907E-2</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="General">
+                  <c:v>2.21419718265903E-2</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="General">
+                  <c:v>-0.20362816093503</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="General">
+                  <c:v>-0.32921455192306998</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="General">
+                  <c:v>-0.30306524796916301</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="General">
+                  <c:v>-0.42414658753748102</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="General">
+                  <c:v>-0.51154232401335398</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="General">
+                  <c:v>-0.573014133398559</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="General">
+                  <c:v>-0.61694681659808204</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="General">
+                  <c:v>-0.650494725390659</c:v>
+                </c:pt>
+                <c:pt idx="78" formatCode="General">
+                  <c:v>-0.78539816339744795</c:v>
+                </c:pt>
+                <c:pt idx="79" formatCode="General">
+                  <c:v>-0.70608635507601902</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="General">
+                  <c:v>-0.57473029625031602</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="General">
+                  <c:v>-0.48468406029074401</c:v>
+                </c:pt>
+                <c:pt idx="82" formatCode="General">
+                  <c:v>-0.41735403003612398</c:v>
+                </c:pt>
+                <c:pt idx="83" formatCode="General">
+                  <c:v>-0.36147061113336798</c:v>
+                </c:pt>
+                <c:pt idx="84" formatCode="General">
+                  <c:v>-0.313264980880953</c:v>
+                </c:pt>
+                <c:pt idx="85" formatCode="General">
+                  <c:v>-0.27677485217925901</c:v>
+                </c:pt>
+                <c:pt idx="86" formatCode="General">
+                  <c:v>-0.244718021031506</c:v>
+                </c:pt>
+                <c:pt idx="87" formatCode="General">
+                  <c:v>-0.21871885127526799</c:v>
+                </c:pt>
+                <c:pt idx="88" formatCode="General">
+                  <c:v>-0.19464329350458501</c:v>
+                </c:pt>
+                <c:pt idx="89" formatCode="General">
+                  <c:v>-0.17279007291432499</c:v>
+                </c:pt>
+                <c:pt idx="90" formatCode="General">
+                  <c:v>-0.15671297244152799</c:v>
+                </c:pt>
+                <c:pt idx="91" formatCode="General">
+                  <c:v>-0.14079323230097701</c:v>
+                </c:pt>
+                <c:pt idx="92" formatCode="General">
+                  <c:v>-0.12579342927707601</c:v>
+                </c:pt>
+                <c:pt idx="93" formatCode="General">
+                  <c:v>-0.114741511073935</c:v>
+                </c:pt>
+                <c:pt idx="94" formatCode="General">
+                  <c:v>-0.104760506171948</c:v>
+                </c:pt>
+                <c:pt idx="95" formatCode="General">
+                  <c:v>-9.4576107590116795E-2</c:v>
+                </c:pt>
+                <c:pt idx="96" formatCode="General">
+                  <c:v>-8.5849877709008898E-2</c:v>
+                </c:pt>
+                <c:pt idx="97" formatCode="General">
+                  <c:v>-7.9159164728217796E-2</c:v>
+                </c:pt>
+                <c:pt idx="98" formatCode="General">
+                  <c:v>-7.1916873621419103E-2</c:v>
+                </c:pt>
+                <c:pt idx="99" formatCode="General">
+                  <c:v>-6.5552978571036896E-2</c:v>
+                </c:pt>
+                <c:pt idx="100" formatCode="General">
+                  <c:v>-5.9888099145230501E-2</c:v>
+                </c:pt>
+                <c:pt idx="101" formatCode="General">
+                  <c:v>-5.4797336745590099E-2</c:v>
+                </c:pt>
+                <c:pt idx="102" formatCode="General">
+                  <c:v>-5.01912741288639E-2</c:v>
+                </c:pt>
+                <c:pt idx="103" formatCode="General">
+                  <c:v>-4.6003820942133997E-2</c:v>
+                </c:pt>
+                <c:pt idx="104" formatCode="General">
+                  <c:v>-4.2184408405336798E-2</c:v>
+                </c:pt>
+                <c:pt idx="105" formatCode="General">
+                  <c:v>-3.8692960884295698E-2</c:v>
+                </c:pt>
+                <c:pt idx="106" formatCode="General">
+                  <c:v>-3.5064542031729103E-2</c:v>
+                </c:pt>
+                <c:pt idx="107" formatCode="General">
+                  <c:v>-3.2353717913373499E-2</c:v>
+                </c:pt>
+                <c:pt idx="108" formatCode="General">
+                  <c:v>-2.9803423947257001E-2</c:v>
+                </c:pt>
+                <c:pt idx="109" formatCode="General">
+                  <c:v>-2.74217521776642E-2</c:v>
+                </c:pt>
+                <c:pt idx="110" formatCode="General">
+                  <c:v>-2.5209020728040901E-2</c:v>
+                </c:pt>
+                <c:pt idx="111" formatCode="General">
+                  <c:v>-2.3160781636562901E-2</c:v>
+                </c:pt>
+                <c:pt idx="112" formatCode="General">
+                  <c:v>-1.9194228897609699E-2</c:v>
+                </c:pt>
+                <c:pt idx="113" formatCode="General">
+                  <c:v>-1.17574172343873E-2</c:v>
+                </c:pt>
+                <c:pt idx="114" formatCode="General">
+                  <c:v>-7.5293124298467197E-3</c:v>
+                </c:pt>
+                <c:pt idx="115" formatCode="General">
+                  <c:v>-5.0309723405486898E-3</c:v>
+                </c:pt>
+                <c:pt idx="116" formatCode="General">
+                  <c:v>-3.5013641372841301E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DC8A-411C-9454-63D20A00CAFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>s_course.txt_50_yaw!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hybrid Stanley and Pure Pursuit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>s_course.txt_50_yaw!$A$2:$A$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="122"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>12.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>s_course.txt_50_yaw!$E$2:$E$123</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="122"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.00421037530082E-16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.12667505521556E-16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.2491397351303E-16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.3716044150450301E-16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.4940690949597701E-16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.6165337748744999E-16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.7389984547892399E-16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.86146313470397E-16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.98392781461871E-16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.1063924945334399E-16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.2288571744481799E-16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.35132185436291E-16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.47378653427765E-16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.5962512141923801E-16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.7187158941071201E-16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.8411805740218601E-16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.9636452539365902E-16</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3.0861099338513302E-16</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.2085746137660598E-16</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3.3310392936807998E-16</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3.4535039735955299E-16</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-3.5759686535102699E-16</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-3.698433333425E-16</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-3.82089801333974E-16</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-3.9433626932544701E-16</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-4.0658273731692101E-16</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-4.1882920530839402E-16</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-4.3107567329986802E-16</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>4.1336745441970801E-2</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>0.21117451537990301</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>0.35411987404687201</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="General">
+                  <c:v>0.46896499718218299</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>0.42040179736489802</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="General">
+                  <c:v>0.53849421062509095</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="General">
+                  <c:v>0.62309561651381296</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="General">
+                  <c:v>0.68059910387911104</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="General">
+                  <c:v>0.78539816339744795</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="General">
+                  <c:v>0.78539816339744795</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="General">
+                  <c:v>0.78539816339744795</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="General">
+                  <c:v>0.62224484252253398</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="General">
+                  <c:v>0.50799357621793395</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="General">
+                  <c:v>0.42098480229297103</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="General">
+                  <c:v>0.35531472041457002</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="General">
+                  <c:v>0.30258948118441598</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="General">
+                  <c:v>0.25894776472311298</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="General">
+                  <c:v>0.22419794320630601</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="General">
+                  <c:v>0.19393715950054199</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="General">
+                  <c:v>0.17073364887964201</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="General">
+                  <c:v>0.14937707242804599</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="General">
+                  <c:v>0.13138178814343901</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="General">
+                  <c:v>0.11599929160137901</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="General">
+                  <c:v>0.10270401549186001</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="General">
+                  <c:v>9.1115774425627793E-2</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="General">
+                  <c:v>8.0951524900251801E-2</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="General">
+                  <c:v>7.1994588292951897E-2</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="General">
+                  <c:v>6.4074626480271402E-2</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="General">
+                  <c:v>5.6527316948744598E-2</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="General">
+                  <c:v>5.0544628588007401E-2</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="General">
+                  <c:v>4.51701603129816E-2</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="General">
+                  <c:v>4.0347518307357701E-2</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="General">
+                  <c:v>3.6024636114203097E-2</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="General">
+                  <c:v>3.1854932312545499E-2</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="General">
+                  <c:v>2.85331201377916E-2</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="General">
+                  <c:v>2.55313163499057E-2</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="General">
+                  <c:v>2.28261347072331E-2</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="General">
+                  <c:v>2.0203991591565201E-2</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="General">
+                  <c:v>1.8110975789076701E-2</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="General">
+                  <c:v>1.62148972732469E-2</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="General">
+                  <c:v>1.4503009651015799E-2</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="General">
+                  <c:v>1.28409445278088E-2</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="General">
+                  <c:v>1.1513366525965201E-2</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="General">
+                  <c:v>1.0309733567347001E-2</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="General">
+                  <c:v>8.7064497721399403E-3</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="General">
+                  <c:v>-0.217972435963358</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="General">
+                  <c:v>-0.357131222713024</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="General">
+                  <c:v>-0.34458797896677701</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="General">
+                  <c:v>-0.47338386679313799</c:v>
+                </c:pt>
+                <c:pt idx="78" formatCode="General">
+                  <c:v>-0.57063850435835906</c:v>
+                </c:pt>
+                <c:pt idx="79" formatCode="General">
+                  <c:v>-0.63976584549862403</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="General">
+                  <c:v>-0.68721810293086705</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="General">
+                  <c:v>-0.78539816339744795</c:v>
+                </c:pt>
+                <c:pt idx="82" formatCode="General">
+                  <c:v>-0.78539816339744795</c:v>
+                </c:pt>
+                <c:pt idx="83" formatCode="General">
+                  <c:v>-0.77249102949080295</c:v>
+                </c:pt>
+                <c:pt idx="84" formatCode="General">
+                  <c:v>-0.61474845228726105</c:v>
+                </c:pt>
+                <c:pt idx="85" formatCode="General">
+                  <c:v>-0.50380060184128295</c:v>
+                </c:pt>
+                <c:pt idx="86" formatCode="General">
+                  <c:v>-0.41837205313607501</c:v>
+                </c:pt>
+                <c:pt idx="87" formatCode="General">
+                  <c:v>-0.35362407847065003</c:v>
+                </c:pt>
+                <c:pt idx="88" formatCode="General">
+                  <c:v>-0.30150193182798601</c:v>
+                </c:pt>
+                <c:pt idx="89" formatCode="General">
+                  <c:v>-0.25827650903579302</c:v>
+                </c:pt>
+                <c:pt idx="90" formatCode="General">
+                  <c:v>-0.22382299300164701</c:v>
+                </c:pt>
+                <c:pt idx="91" formatCode="General">
+                  <c:v>-0.195466661753708</c:v>
+                </c:pt>
+                <c:pt idx="92" formatCode="General">
+                  <c:v>-0.17008079426314099</c:v>
+                </c:pt>
+                <c:pt idx="93" formatCode="General">
+                  <c:v>-0.149029749531019</c:v>
+                </c:pt>
+                <c:pt idx="94" formatCode="General">
+                  <c:v>-0.13125016414989499</c:v>
+                </c:pt>
+                <c:pt idx="95" formatCode="General">
+                  <c:v>-0.116018583076734</c:v>
+                </c:pt>
+                <c:pt idx="96" formatCode="General">
+                  <c:v>-0.10282696433395901</c:v>
+                </c:pt>
+                <c:pt idx="97" formatCode="General">
+                  <c:v>-9.1307700590167296E-2</c:v>
+                </c:pt>
+                <c:pt idx="98" formatCode="General">
+                  <c:v>-8.1186941404964297E-2</c:v>
+                </c:pt>
+                <c:pt idx="99" formatCode="General">
+                  <c:v>-7.2254813606329599E-2</c:v>
+                </c:pt>
+                <c:pt idx="100" formatCode="General">
+                  <c:v>-6.4346060755641601E-2</c:v>
+                </c:pt>
+                <c:pt idx="101" formatCode="General">
+                  <c:v>-5.7327260324094097E-2</c:v>
+                </c:pt>
+                <c:pt idx="102" formatCode="General">
+                  <c:v>-5.1088266371097701E-2</c:v>
+                </c:pt>
+                <c:pt idx="103" formatCode="General">
+                  <c:v>-4.5114879783639497E-2</c:v>
+                </c:pt>
+                <c:pt idx="104" formatCode="General">
+                  <c:v>-4.0371225316647899E-2</c:v>
+                </c:pt>
+                <c:pt idx="105" formatCode="General">
+                  <c:v>-3.61002820933757E-2</c:v>
+                </c:pt>
+                <c:pt idx="106" formatCode="General">
+                  <c:v>-3.2261575390018997E-2</c:v>
+                </c:pt>
+                <c:pt idx="107" formatCode="General">
+                  <c:v>-2.88165022465919E-2</c:v>
+                </c:pt>
+                <c:pt idx="108" formatCode="General">
+                  <c:v>-2.5489628154131201E-2</c:v>
+                </c:pt>
+                <c:pt idx="109" formatCode="General">
+                  <c:v>-2.2838372628067798E-2</c:v>
+                </c:pt>
+                <c:pt idx="110" formatCode="General">
+                  <c:v>-2.0441162511993599E-2</c:v>
+                </c:pt>
+                <c:pt idx="111" formatCode="General">
+                  <c:v>-1.8279842586940501E-2</c:v>
+                </c:pt>
+                <c:pt idx="112" formatCode="General">
+                  <c:v>-1.63357399601134E-2</c:v>
+                </c:pt>
+                <c:pt idx="113" formatCode="General">
+                  <c:v>-1.44546771839723E-2</c:v>
+                </c:pt>
+                <c:pt idx="114" formatCode="General">
+                  <c:v>-1.2954461836384301E-2</c:v>
+                </c:pt>
+                <c:pt idx="115" formatCode="General">
+                  <c:v>-1.15967872298358E-2</c:v>
+                </c:pt>
+                <c:pt idx="116" formatCode="General">
+                  <c:v>-1.03719475227824E-2</c:v>
+                </c:pt>
+                <c:pt idx="117" formatCode="General">
+                  <c:v>-8.8382234144868295E-3</c:v>
+                </c:pt>
+                <c:pt idx="118" formatCode="General">
+                  <c:v>9.6234401221520407E-3</c:v>
+                </c:pt>
+                <c:pt idx="119" formatCode="General">
+                  <c:v>9.2446992299859594E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DC8A-411C-9454-63D20A00CAFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1382838127"/>
+        <c:axId val="1382839375"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1382838127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>TIme</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1382839375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1382839375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Steering angle</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1382838127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70F38042-6E3F-42D2-9E47-AE9396339E37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -875,11 +4985,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="A124" sqref="A124:A150"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="Q116" sqref="Q116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2950,5 +7060,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/results/s_course.txt_50_yaw.xlsx
+++ b/results/s_course.txt_50_yaw.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artyom\Documents\Projects\autonomous_vehicles1\path-planning-simulation\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04928E39-B2D3-42A7-B418-087548C8C4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8308CF0C-9BAC-4B6A-829F-8A6312286893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="7380" windowWidth="10116" windowHeight="3300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="s_course.txt_50_yaw" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <t>Stanley with lookahead</t>
   </si>
   <si>
-    <t>Hybrid Stanley and Pure Pursuit</t>
+    <t>Combined Stanley and Pure Pursuit</t>
   </si>
 </sst>
 </file>
@@ -2996,7 +2996,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Hybrid Stanley and Pure Pursuit</c:v>
+                  <c:v>Combined Stanley and Pure Pursuit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4988,8 +4988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="Q116" sqref="Q116"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
